--- a/clean/name/08026C.xlsx
+++ b/clean/name/08026C.xlsx
@@ -1745,6 +1745,11 @@
           <t>Patient</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Prothrombin Time</t>
+        </is>
+      </c>
       <c r="D79">
         <v>35442</v>
       </c>
@@ -2010,11 +2015,6 @@
           <t>PT-Inr</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Prothrombin Time</t>
-        </is>
-      </c>
       <c r="D93">
         <v>22532</v>
       </c>
@@ -8133,11 +8133,6 @@
       <c r="B439" t="inlineStr">
         <is>
           <t>EPITH.CELL</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>Prothrombin Time</t>
         </is>
       </c>
       <c r="D439">
